--- a/biology/Botanique/Dicorynia_guianensis/Dicorynia_guianensis.xlsx
+++ b/biology/Botanique/Dicorynia_guianensis/Dicorynia_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicorynia guianensis est une espèce d'arbre de grande taille, de la famille des Caesalpiniaceae selon la classification classique, ou de celle des Fabaceae, sous-famille des Caesalpinioideae selon la classification phylogénétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cet arbre est connu sous différents noms vernaculaires :
 en Guyane :
@@ -519,14 +533,14 @@
 singapetu (aluku, ndjuka, paramaka)
 ki'ereï (kali'na)
 anjeli (palikur)
-aisili (wayãpi)[3]
+aisili (wayãpi)
 au Suriname
 basralocus
 tapaiuna
 basralokus
 barakaroeballi
 au Brésil
-angelica do Pará (portugais du Brésil)[4].</t>
+angelica do Pará (portugais du Brésil).</t>
         </is>
       </c>
     </row>
@@ -554,9 +568,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'angélique peut atteindre 45 m de haut[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'angélique peut atteindre 45 m de haut.
 </t>
         </is>
       </c>
@@ -585,7 +601,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'angélique est une espèce endémique du plateau des Guyanes.
 </t>
@@ -616,7 +634,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De par son abondance et ses qualités technologiques, c'est la principale espèce exploitée pour son bois en Guyane.
 </t>
